--- a/tools/DBLoader_nodejs/student_roster.xlsx
+++ b/tools/DBLoader_nodejs/student_roster.xlsx
@@ -1246,6 +1246,33 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1258,33 +1285,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1638,7 +1638,7 @@
   <dimension ref="A1:U140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -1654,121 +1654,121 @@
   <sheetData>
     <row r="1" spans="1:21" s="2" customFormat="1" ht="16.2">
       <c r="A1" s="3"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
     </row>
     <row r="2" spans="1:21" s="2" customFormat="1" ht="16.2">
       <c r="A2" s="3"/>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="E2" s="23" t="s">
+      <c r="C2" s="33"/>
+      <c r="E2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="Q2" s="25" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="Q2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="25"/>
-      <c r="S2" s="25"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
     </row>
     <row r="3" spans="1:21" s="2" customFormat="1" ht="16.2">
       <c r="A3" s="3"/>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27" t="s">
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
     </row>
     <row r="4" spans="1:21" ht="12" customHeight="1">
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="F4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="29"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="30"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="25"/>
     </row>
     <row r="5" spans="1:21" ht="12" customHeight="1">
-      <c r="B5" s="32"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="36"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="31"/>
       <c r="G5" s="4">
         <v>1</v>
       </c>
@@ -2606,18 +2606,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:M2"/>
+    <mergeCell ref="Q2:U2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="L3:U3"/>
     <mergeCell ref="G4:U4"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="E2:M2"/>
-    <mergeCell ref="Q2:U2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="L3:U3"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.4" right="0.4" top="0.55000000000000004" bottom="0.59" header="0.28000000000000003" footer="0.51"/>
